--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:49:27+00:00</t>
+    <t>2024-04-08T16:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:58:24+00:00</t>
+    <t>2024-05-22T07:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IDG Institut für digitale Gesundheitsdaten RLP gGmbH (https://www.idg-rlp.de/, info@idg-rlp.de)</t>
   </si>
   <si>
     <t>Description</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:04:28+00:00</t>
+    <t>2024-05-28T11:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:23:31+00:00</t>
+    <t>2024-05-28T11:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:48:18+00:00</t>
+    <t>2024-09-17T19:55:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>IDG Institut für digitale Gesundheitsdaten RLP gGmbH (https://www.idg-rlp.de/, info@idg-rlp.de)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -278,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -378,64 +384,72 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -453,51 +467,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Lymphgefaessinvasion-cs.xlsx
+++ b/CodeSystem-Lymphgefaessinvasion-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
